--- a/DimAssinatura.xlsx
+++ b/DimAssinatura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\Mvp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\MVP_SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959987A4-CD2D-48D5-950A-46C576BEA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53726490-2F3C-46C2-BA7D-FD8A7E7B01B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{577839C8-58CF-4FC0-8A71-0DC93FEC7CC2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DimAssinatura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">DimAssinatura!$A$1:$E$10</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">DimAssinatura!$B$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>assinatura</t>
   </si>
@@ -55,15 +55,9 @@
     <t>duracao_contrato</t>
   </si>
   <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mensal </t>
   </si>
   <si>
-    <t xml:space="preserve"> Valor Plano </t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -107,13 +101,32 @@
   </si>
   <si>
     <t>StandardQuarterly</t>
+  </si>
+  <si>
+    <t>AssinID</t>
+  </si>
+  <si>
+    <t>TipoPlano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ValorPlano </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +152,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -174,8 +189,9 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{CE30DE77-D1B2-429C-962F-3D39E21F9096}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
+  <queryTableRefresh nextId="8" unboundColumnsLeft="1">
+    <queryTableFields count="6">
+      <queryTableField id="6" dataBound="0" tableColumnId="6"/>
       <queryTableField id="1" name="assinatura" tableColumnId="1"/>
       <queryTableField id="2" name="duracao_contrato" tableColumnId="2"/>
       <queryTableField id="3" name="Coluna2" tableColumnId="3"/>
@@ -187,14 +203,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5820C42C-A78B-41F2-AA3B-4F93D18F92D1}" name="DimAssinatura" displayName="DimAssinatura" ref="A1:E10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{5820C42C-A78B-41F2-AA3B-4F93D18F92D1}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5820C42C-A78B-41F2-AA3B-4F93D18F92D1}" name="DimAssinatura" displayName="DimAssinatura" ref="A1:F10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F10" xr:uid="{5820C42C-A78B-41F2-AA3B-4F93D18F92D1}"/>
+  <tableColumns count="6">
+    <tableColumn id="6" xr3:uid="{9722B408-A9BF-4168-8772-0079480FA060}" uniqueName="6" name="AssinID" queryTableFieldId="6"/>
     <tableColumn id="1" xr3:uid="{774D279D-AB55-473F-93D5-25FC48D69D9D}" uniqueName="1" name="assinatura" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B0652310-48E2-4292-9DD7-93DF36879932}" uniqueName="2" name="duracao_contrato" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4F26FEFC-BED3-4A73-AED2-E569C65D5057}" uniqueName="3" name="Coluna2" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{07AEE99B-E97A-4CE3-8F0C-D2CD71E876BE}" uniqueName="4" name=" Mensal " queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{7045CE01-C66E-43F5-9B6D-116DC1DE1AF7}" uniqueName="5" name=" Valor Plano " queryTableFieldId="5"/>
+    <tableColumn id="3" xr3:uid="{4F26FEFC-BED3-4A73-AED2-E569C65D5057}" uniqueName="3" name="TipoPlano" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{07AEE99B-E97A-4CE3-8F0C-D2CD71E876BE}" uniqueName="4" name=" Mensal " queryTableFieldId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{7045CE01-C66E-43F5-9B6D-116DC1DE1AF7}" uniqueName="5" name=" ValorPlano " queryTableFieldId="5" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,188 +534,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9870BC0-FF12-41C0-82DF-A340074EB69F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>120</v>
+      </c>
+      <c r="F3" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>145</v>
+      </c>
+      <c r="F9" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>160</v>
-      </c>
-      <c r="E6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>110</v>
-      </c>
-      <c r="E7">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>145</v>
-      </c>
-      <c r="E9">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>95</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>380</v>
       </c>
     </row>

--- a/DimAssinatura.xlsx
+++ b/DimAssinatura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\MVP_SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53726490-2F3C-46C2-BA7D-FD8A7E7B01B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657659D2-0331-4579-BCC9-E5A579150184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{577839C8-58CF-4FC0-8A71-0DC93FEC7CC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{577839C8-58CF-4FC0-8A71-0DC93FEC7CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="DimAssinatura" sheetId="2" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>duracao_contrato</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mensal </t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ValorPlano </t>
+  </si>
+  <si>
+    <t>Mensal</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <tableColumn id="1" xr3:uid="{774D279D-AB55-473F-93D5-25FC48D69D9D}" uniqueName="1" name="assinatura" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B0652310-48E2-4292-9DD7-93DF36879932}" uniqueName="2" name="duracao_contrato" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{4F26FEFC-BED3-4A73-AED2-E569C65D5057}" uniqueName="3" name="TipoPlano" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{07AEE99B-E97A-4CE3-8F0C-D2CD71E876BE}" uniqueName="4" name=" Mensal " queryTableFieldId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{07AEE99B-E97A-4CE3-8F0C-D2CD71E876BE}" uniqueName="4" name="Mensal" queryTableFieldId="4" dataCellStyle="Moeda"/>
     <tableColumn id="5" xr3:uid="{7045CE01-C66E-43F5-9B6D-116DC1DE1AF7}" uniqueName="5" name=" ValorPlano " queryTableFieldId="5" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -575,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -595,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>120</v>
@@ -615,13 +615,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>70</v>
@@ -635,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>80</v>
@@ -655,13 +655,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>160</v>
@@ -675,13 +675,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>110</v>
@@ -695,13 +695,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>75</v>
@@ -715,13 +715,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>145</v>
@@ -735,13 +735,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>95</v>

--- a/DimAssinatura.xlsx
+++ b/DimAssinatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\MVP_SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657659D2-0331-4579-BCC9-E5A579150184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58FFA2-2F5E-42FC-92F4-7BF9805D03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{577839C8-58CF-4FC0-8A71-0DC93FEC7CC2}"/>
   </bookViews>
@@ -106,10 +106,10 @@
     <t>TipoPlano</t>
   </si>
   <si>
-    <t xml:space="preserve"> ValorPlano </t>
-  </si>
-  <si>
     <t>Mensal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ValorPlano</t>
   </si>
 </sst>
 </file>
@@ -211,7 +211,7 @@
     <tableColumn id="2" xr3:uid="{B0652310-48E2-4292-9DD7-93DF36879932}" uniqueName="2" name="duracao_contrato" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{4F26FEFC-BED3-4A73-AED2-E569C65D5057}" uniqueName="3" name="TipoPlano" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{07AEE99B-E97A-4CE3-8F0C-D2CD71E876BE}" uniqueName="4" name="Mensal" queryTableFieldId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{7045CE01-C66E-43F5-9B6D-116DC1DE1AF7}" uniqueName="5" name=" ValorPlano " queryTableFieldId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{7045CE01-C66E-43F5-9B6D-116DC1DE1AF7}" uniqueName="5" name=" ValorPlano" queryTableFieldId="5" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,9 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9870BC0-FF12-41C0-82DF-A340074EB69F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -564,10 +562,10 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/DimAssinatura.xlsx
+++ b/DimAssinatura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\MVP_SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58FFA2-2F5E-42FC-92F4-7BF9805D03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F4785-E390-4CAD-B716-C2197AF2BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{577839C8-58CF-4FC0-8A71-0DC93FEC7CC2}"/>
   </bookViews>
@@ -536,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9870BC0-FF12-41C0-82DF-A340074EB69F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
